--- a/MAPA DE METAS.xlsx
+++ b/MAPA DE METAS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudprodamazhotmail-my.sharepoint.com/personal/matheusamarinho_prefeitura_sp_gov_br/Documents/Github/Mapinha de Metas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudprodamazhotmail-my.sharepoint.com/personal/matheusamarinho_prefeitura_sp_gov_br/Documents/Github/VisualizadorDeMetas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{6904FD0E-F6A7-4F6C-BB91-39CC99842643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB03A294-1D01-4F22-AB22-AE6D566F7ECC}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{6904FD0E-F6A7-4F6C-BB91-39CC99842643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A868C90-7FBA-4036-9074-A454892EFFA6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{96869C97-D80D-464A-81B6-F0F8268E5FED}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96869C97-D80D-464A-81B6-F0F8268E5FED}"/>
   </bookViews>
   <sheets>
     <sheet name="Impresso" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="151">
   <si>
     <t xml:space="preserve">HD Itaim </t>
   </si>
@@ -224,9 +224,6 @@
     <t>8/12h</t>
   </si>
   <si>
-    <t>37/12h</t>
-  </si>
-  <si>
     <t xml:space="preserve">2/12h dia 2/12h noite </t>
   </si>
   <si>
@@ -344,9 +341,6 @@
     <t>Procedimentos</t>
   </si>
   <si>
-    <t>1/20h Dr Gamaliel  (transf para jacuí  em 05/24</t>
-  </si>
-  <si>
     <t>1/6h + 1/12h</t>
   </si>
   <si>
@@ -486,6 +480,18 @@
   </si>
   <si>
     <t>Especialidade/procedimento</t>
+  </si>
+  <si>
+    <t>Cardiologista</t>
+  </si>
+  <si>
+    <t>9/12h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/20h </t>
+  </si>
+  <si>
+    <t>36/12h</t>
   </si>
 </sst>
 </file>
@@ -733,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -829,6 +835,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1191,8 +1200,8 @@
   </sheetPr>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,30 +1219,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="37"/>
-      <c r="B1" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
@@ -1278,7 +1287,7 @@
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="14"/>
@@ -1288,7 +1297,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
       <c r="I4" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="26" t="s">
@@ -1306,7 +1315,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="17" t="s">
@@ -1343,13 +1352,13 @@
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>17</v>
@@ -1372,19 +1381,21 @@
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="14"/>
+        <v>127</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="D8" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>10</v>
-      </c>
+      <c r="F8" s="17"/>
       <c r="G8" s="21" t="s">
         <v>9</v>
       </c>
@@ -1414,7 +1425,7 @@
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>14</v>
@@ -1423,35 +1434,35 @@
         <v>18</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="15"/>
       <c r="K10" s="26"/>
       <c r="N10" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="14"/>
       <c r="D11" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="17"/>
@@ -1465,7 +1476,7 @@
     </row>
     <row r="12" spans="1:14" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="14"/>
@@ -1474,10 +1485,10 @@
         <v>13</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="23"/>
@@ -1486,7 +1497,7 @@
     </row>
     <row r="13" spans="1:14" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="14"/>
@@ -1503,22 +1514,24 @@
     </row>
     <row r="14" spans="1:14" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="33" t="s">
+        <v>103</v>
+      </c>
       <c r="D14" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="15"/>
@@ -1526,16 +1539,16 @@
     </row>
     <row r="15" spans="1:14" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>13</v>
@@ -1570,7 +1583,7 @@
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="14" t="s">
@@ -1589,13 +1602,13 @@
       <c r="J17" s="15"/>
       <c r="K17" s="26"/>
     </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="14" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="20"/>
@@ -1623,7 +1636,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="19" t="s">
@@ -1642,7 +1655,7 @@
       <c r="B20" s="25"/>
       <c r="C20" s="14"/>
       <c r="D20" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="17"/>
@@ -1739,7 +1752,7 @@
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>9</v>
@@ -1758,7 +1771,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="17"/>
@@ -1772,7 +1785,7 @@
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="14" t="s">
@@ -1800,7 +1813,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>9</v>
@@ -1816,7 +1829,7 @@
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="14"/>
@@ -1833,14 +1846,14 @@
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="14"/>
       <c r="D30" s="16"/>
       <c r="E30" s="20"/>
       <c r="F30" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="19"/>
@@ -1868,7 +1881,7 @@
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="26" t="s">
@@ -1877,7 +1890,7 @@
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>13</v>
@@ -1886,13 +1899,13 @@
         <v>13</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>18</v>
@@ -1906,7 +1919,7 @@
     </row>
     <row r="33" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="14" t="s">
@@ -1923,7 +1936,7 @@
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="14" t="s">
@@ -1942,7 +1955,7 @@
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="14"/>
@@ -1959,7 +1972,7 @@
     </row>
     <row r="36" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="14"/>
@@ -1978,7 +1991,7 @@
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="14" t="s">
@@ -2037,12 +2050,12 @@
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="14"/>
       <c r="D40" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="17"/>
@@ -2063,7 +2076,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="17"/>
@@ -2104,31 +2117,31 @@
     </row>
     <row r="43" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
-      <c r="B43" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="41"/>
+      <c r="B43" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="42"/>
     </row>
     <row r="44" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>59</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="17"/>
@@ -2140,7 +2153,7 @@
     </row>
     <row r="45" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>9</v>
@@ -2161,14 +2174,12 @@
     </row>
     <row r="46" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B46" s="25"/>
-      <c r="C46" s="14" t="s">
-        <v>14</v>
-      </c>
+      <c r="C46" s="14"/>
       <c r="D46" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="17"/>
@@ -2183,9 +2194,11 @@
         <v>33</v>
       </c>
       <c r="B47" s="25"/>
-      <c r="C47" s="14"/>
+      <c r="C47" s="33" t="s">
+        <v>14</v>
+      </c>
       <c r="D47" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="17"/>
@@ -2197,14 +2210,14 @@
     </row>
     <row r="48" spans="1:11" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="25"/>
       <c r="C48" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="17"/>
@@ -2216,16 +2229,16 @@
     </row>
     <row r="49" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="17"/>
@@ -2254,16 +2267,16 @@
     </row>
     <row r="51" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="17"/>
@@ -2275,7 +2288,7 @@
     </row>
     <row r="52" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="25" t="s">
         <v>14</v>
@@ -2296,14 +2309,14 @@
     </row>
     <row r="53" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" s="25"/>
       <c r="C53" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>71</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="17"/>
@@ -2315,7 +2328,7 @@
     </row>
     <row r="54" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" s="25"/>
       <c r="C54" s="14" t="s">
@@ -2332,14 +2345,14 @@
     </row>
     <row r="55" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="25" t="s">
         <v>73</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>74</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="17"/>
@@ -2360,7 +2373,7 @@
         <v>16</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="17"/>
@@ -2374,28 +2387,28 @@
     </row>
     <row r="57" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
-      <c r="B57" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="41"/>
+      <c r="B57" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="42"/>
     </row>
     <row r="58" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B58" s="25">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C58" s="14">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="D58" s="16">
         <v>388</v>
@@ -2413,10 +2426,10 @@
         <v>31</v>
       </c>
       <c r="B59" s="25">
-        <v>354</v>
+        <v>460</v>
       </c>
       <c r="C59" s="14">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="D59" s="16">
         <v>300</v>
@@ -2431,7 +2444,7 @@
     </row>
     <row r="60" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="25"/>
       <c r="C60" s="14" t="s">
@@ -2448,11 +2461,11 @@
     </row>
     <row r="61" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61" s="25"/>
       <c r="C61" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="20"/>
@@ -2464,32 +2477,32 @@
       <c r="K61" s="26"/>
     </row>
     <row r="62" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B62" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="41"/>
+      <c r="A62" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="42"/>
     </row>
     <row r="63" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>1</v>
@@ -2515,7 +2528,7 @@
     </row>
     <row r="64" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" s="25"/>
       <c r="C64" s="14"/>
@@ -2558,7 +2571,9 @@
       <c r="B66" s="25">
         <v>80</v>
       </c>
-      <c r="C66" s="14"/>
+      <c r="C66" s="14">
+        <v>80</v>
+      </c>
       <c r="D66" s="16"/>
       <c r="E66" s="20"/>
       <c r="F66" s="17"/>
@@ -2566,13 +2581,13 @@
       <c r="H66" s="19"/>
       <c r="I66" s="23"/>
       <c r="J66" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K66" s="26"/>
     </row>
     <row r="67" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67" s="25"/>
       <c r="C67" s="14"/>
@@ -2598,7 +2613,7 @@
         <v>160</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="17"/>
@@ -2610,7 +2625,7 @@
     </row>
     <row r="69" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="14"/>
@@ -2629,7 +2644,7 @@
     </row>
     <row r="70" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B70" s="25"/>
       <c r="C70" s="14"/>
@@ -2663,17 +2678,17 @@
     </row>
     <row r="72" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B72" s="25"/>
       <c r="C72" s="14"/>
       <c r="D72" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="17"/>
       <c r="G72" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="23"/>
@@ -2699,7 +2714,7 @@
     </row>
     <row r="74" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" s="25"/>
       <c r="C74" s="14"/>
@@ -2747,7 +2762,7 @@
     </row>
     <row r="76" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" s="25"/>
       <c r="C76" s="14"/>
@@ -2833,7 +2848,7 @@
       </c>
       <c r="B80" s="25"/>
       <c r="C80" s="14">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="20"/>
@@ -2879,7 +2894,7 @@
         <v>100</v>
       </c>
       <c r="C82" s="14">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="D82" s="16">
         <v>210</v>
@@ -2903,7 +2918,9 @@
         <v>36</v>
       </c>
       <c r="B83" s="25"/>
-      <c r="C83" s="14"/>
+      <c r="C83" s="14">
+        <v>410</v>
+      </c>
       <c r="D83" s="16">
         <v>210</v>
       </c>
@@ -2922,10 +2939,10 @@
         <v>40</v>
       </c>
       <c r="B84" s="25">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C84" s="14">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="20">
@@ -2942,7 +2959,7 @@
     </row>
     <row r="85" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A85" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="25"/>
       <c r="C85" s="14"/>
@@ -2959,16 +2976,16 @@
     </row>
     <row r="86" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="17"/>
@@ -2980,12 +2997,12 @@
     </row>
     <row r="87" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A87" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="25"/>
       <c r="C87" s="14"/>
       <c r="D87" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="17"/>
@@ -3088,7 +3105,7 @@
     </row>
     <row r="91" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A91" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91" s="25"/>
       <c r="C91" s="14"/>
@@ -3107,7 +3124,7 @@
     </row>
     <row r="92" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A92" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92" s="25"/>
       <c r="C92" s="14"/>
@@ -3130,7 +3147,7 @@
     </row>
     <row r="93" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A93" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93" s="25"/>
       <c r="C93" s="14"/>
@@ -3147,7 +3164,7 @@
     </row>
     <row r="94" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A94" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B94" s="25"/>
       <c r="C94" s="14"/>
@@ -3181,8 +3198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D81E67B-4A45-4737-8C67-0B051B7F81D8}">
   <dimension ref="A1:C881"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3193,13 +3210,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -3213,7 +3230,7 @@
     </row>
     <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -3242,7 +3259,7 @@
     </row>
     <row r="6" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>0</v>
@@ -3253,12 +3270,14 @@
     </row>
     <row r="7" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
@@ -3271,7 +3290,7 @@
     </row>
     <row r="9" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>0</v>
@@ -3282,7 +3301,7 @@
     </row>
     <row r="10" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>0</v>
@@ -3291,7 +3310,7 @@
     </row>
     <row r="11" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>0</v>
@@ -3300,7 +3319,7 @@
     </row>
     <row r="12" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>0</v>
@@ -3309,7 +3328,7 @@
     </row>
     <row r="13" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>0</v>
@@ -3318,13 +3337,13 @@
     </row>
     <row r="14" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -3338,7 +3357,7 @@
     </row>
     <row r="16" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>0</v>
@@ -3347,7 +3366,7 @@
     </row>
     <row r="17" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>0</v>
@@ -3430,7 +3449,7 @@
     </row>
     <row r="26" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>0</v>
@@ -3450,7 +3469,7 @@
     </row>
     <row r="28" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>0</v>
@@ -3459,7 +3478,7 @@
     </row>
     <row r="29" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>0</v>
@@ -3479,7 +3498,7 @@
     </row>
     <row r="31" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>0</v>
@@ -3490,7 +3509,7 @@
     </row>
     <row r="32" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>0</v>
@@ -3499,7 +3518,7 @@
     </row>
     <row r="33" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>0</v>
@@ -3508,7 +3527,7 @@
     </row>
     <row r="34" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>0</v>
@@ -3517,7 +3536,7 @@
     </row>
     <row r="35" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>0</v>
@@ -3526,7 +3545,7 @@
     </row>
     <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>0</v>
@@ -3555,7 +3574,7 @@
     </row>
     <row r="39" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>0</v>
@@ -3592,12 +3611,12 @@
         <v>0</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>0</v>
@@ -3608,7 +3627,7 @@
     </row>
     <row r="44" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>0</v>
@@ -3626,7 +3645,7 @@
     </row>
     <row r="46" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>0</v>
@@ -3635,13 +3654,13 @@
     </row>
     <row r="47" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -3655,7 +3674,7 @@
     </row>
     <row r="49" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>0</v>
@@ -3666,7 +3685,7 @@
     </row>
     <row r="50" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>0</v>
@@ -3677,7 +3696,7 @@
     </row>
     <row r="51" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>0</v>
@@ -3686,7 +3705,7 @@
     </row>
     <row r="52" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>0</v>
@@ -3695,13 +3714,13 @@
     </row>
     <row r="53" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -3723,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="25">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -3734,12 +3753,12 @@
         <v>0</v>
       </c>
       <c r="C56" s="25">
-        <v>354</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>0</v>
@@ -3748,7 +3767,7 @@
     </row>
     <row r="58" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>0</v>
@@ -3757,7 +3776,7 @@
     </row>
     <row r="59" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>0</v>
@@ -3786,7 +3805,7 @@
     </row>
     <row r="62" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>0</v>
@@ -3804,7 +3823,7 @@
     </row>
     <row r="64" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>0</v>
@@ -3813,7 +3832,7 @@
     </row>
     <row r="65" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>0</v>
@@ -3831,7 +3850,7 @@
     </row>
     <row r="67" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>0</v>
@@ -3849,7 +3868,7 @@
     </row>
     <row r="69" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>0</v>
@@ -3869,7 +3888,7 @@
     </row>
     <row r="71" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>0</v>
@@ -3951,12 +3970,12 @@
         <v>0</v>
       </c>
       <c r="C79" s="25">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>0</v>
@@ -3965,18 +3984,18 @@
     </row>
     <row r="81" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>0</v>
@@ -4018,7 +4037,7 @@
     </row>
     <row r="86" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>0</v>
@@ -4027,7 +4046,7 @@
     </row>
     <row r="87" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A87" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>0</v>
@@ -4036,7 +4055,7 @@
     </row>
     <row r="88" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A88" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>0</v>
@@ -4045,7 +4064,7 @@
     </row>
     <row r="89" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>0</v>
@@ -4057,7 +4076,7 @@
         <v>8</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>9</v>
@@ -4065,10 +4084,10 @@
     </row>
     <row r="91" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A91" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C91" s="14"/>
     </row>
@@ -4077,7 +4096,7 @@
         <v>12</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>13</v>
@@ -4088,45 +4107,47 @@
         <v>15</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C93" s="14"/>
     </row>
     <row r="94" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A94" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A95" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C95" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="96" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A96" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C96" s="14"/>
     </row>
     <row r="97" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A97" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>18</v>
@@ -4134,46 +4155,48 @@
     </row>
     <row r="98" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A98" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C98" s="14"/>
     </row>
     <row r="99" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A99" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C99" s="14"/>
     </row>
     <row r="100" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A100" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C100" s="14"/>
     </row>
     <row r="101" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A101" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C101" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="C101" s="33" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="102" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A102" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>17</v>
@@ -4184,30 +4207,30 @@
         <v>27</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C103" s="14"/>
     </row>
     <row r="104" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -4215,7 +4238,7 @@
         <v>20</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C106" s="14" t="s">
         <v>13</v>
@@ -4226,7 +4249,7 @@
         <v>33</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C107" s="14"/>
     </row>
@@ -4235,7 +4258,7 @@
         <v>35</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C108" s="14" t="s">
         <v>9</v>
@@ -4246,7 +4269,7 @@
         <v>37</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C109" s="14"/>
     </row>
@@ -4255,7 +4278,7 @@
         <v>39</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C110" s="14"/>
     </row>
@@ -4264,7 +4287,7 @@
         <v>25</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C111" s="14" t="s">
         <v>9</v>
@@ -4275,7 +4298,7 @@
         <v>42</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C112" s="14" t="s">
         <v>9</v>
@@ -4286,7 +4309,7 @@
         <v>29</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C113" s="14" t="s">
         <v>9</v>
@@ -4294,10 +4317,10 @@
     </row>
     <row r="114" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A114" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C114" s="14" t="s">
         <v>9</v>
@@ -4308,7 +4331,7 @@
         <v>21</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>14</v>
@@ -4316,19 +4339,19 @@
     </row>
     <row r="116" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A116" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C116" s="14"/>
     </row>
     <row r="117" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A117" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C117" s="14"/>
     </row>
@@ -4337,7 +4360,7 @@
         <v>22</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C118" s="14" t="s">
         <v>17</v>
@@ -4345,10 +4368,10 @@
     </row>
     <row r="119" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A119" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C119" s="14" t="s">
         <v>13</v>
@@ -4356,10 +4379,10 @@
     </row>
     <row r="120" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A120" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C120" s="14" t="s">
         <v>47</v>
@@ -4367,10 +4390,10 @@
     </row>
     <row r="121" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A121" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C121" s="14" t="s">
         <v>13</v>
@@ -4378,28 +4401,28 @@
     </row>
     <row r="122" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A122" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C122" s="14"/>
     </row>
     <row r="123" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A123" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="C123" s="14"/>
     </row>
     <row r="124" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A124" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C124" s="14" t="s">
         <v>9</v>
@@ -4410,7 +4433,7 @@
         <v>24</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C125" s="14" t="s">
         <v>13</v>
@@ -4421,7 +4444,7 @@
         <v>52</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C126" s="14" t="s">
         <v>53</v>
@@ -4429,10 +4452,10 @@
     </row>
     <row r="127" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A127" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C127" s="14"/>
     </row>
@@ -4441,7 +4464,7 @@
         <v>26</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C128" s="14" t="s">
         <v>13</v>
@@ -4452,7 +4475,7 @@
         <v>28</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C129" s="14" t="s">
         <v>14</v>
@@ -4463,18 +4486,18 @@
         <v>59</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A131" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C131" s="14" t="s">
         <v>9</v>
@@ -4482,30 +4505,30 @@
     </row>
     <row r="132" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A132" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>14</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C132" s="14"/>
     </row>
     <row r="133" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A133" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C133" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="C133" s="33" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="134" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A134" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C134" s="14" t="s">
         <v>9</v>
@@ -4513,10 +4536,10 @@
     </row>
     <row r="135" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A135" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C135" s="14" t="s">
         <v>18</v>
@@ -4527,7 +4550,7 @@
         <v>23</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C136" s="14" t="s">
         <v>60</v>
@@ -4535,41 +4558,41 @@
     </row>
     <row r="137" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A137" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C137" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A138" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C138" s="14"/>
     </row>
     <row r="139" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A139" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C139" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A140" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C140" s="14" t="s">
         <v>16</v>
@@ -4577,10 +4600,10 @@
     </row>
     <row r="141" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A141" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C141" s="14"/>
     </row>
@@ -4589,7 +4612,7 @@
         <v>28</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C142" s="14" t="s">
         <v>16</v>
@@ -4600,10 +4623,10 @@
         <v>30</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C143" s="14">
-        <v>380</v>
+        <v>350</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -4611,18 +4634,18 @@
         <v>31</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C144" s="14">
-        <v>165</v>
+        <v>85</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A145" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C145" s="14" t="s">
         <v>14</v>
@@ -4630,21 +4653,21 @@
     </row>
     <row r="146" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A146" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C146" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A147" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C147" s="14"/>
     </row>
@@ -4653,7 +4676,7 @@
         <v>48</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C148" s="14">
         <v>5</v>
@@ -4664,16 +4687,18 @@
         <v>32</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C149" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="C149" s="14">
+        <v>80</v>
+      </c>
     </row>
     <row r="150" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A150" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C150" s="14"/>
     </row>
@@ -4682,7 +4707,7 @@
         <v>49</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C151" s="14">
         <v>160</v>
@@ -4690,19 +4715,19 @@
     </row>
     <row r="152" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A152" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C152" s="14"/>
     </row>
     <row r="153" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A153" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C153" s="14"/>
     </row>
@@ -4711,7 +4736,7 @@
         <v>50</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C154" s="14">
         <v>280</v>
@@ -4719,10 +4744,10 @@
     </row>
     <row r="155" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A155" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C155" s="14"/>
     </row>
@@ -4731,7 +4756,7 @@
         <v>51</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C156" s="14">
         <v>80</v>
@@ -4739,10 +4764,10 @@
     </row>
     <row r="157" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A157" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C157" s="14"/>
     </row>
@@ -4751,7 +4776,7 @@
         <v>34</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C158" s="14">
         <v>1452</v>
@@ -4759,10 +4784,10 @@
     </row>
     <row r="159" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A159" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C159" s="14"/>
     </row>
@@ -4771,7 +4796,7 @@
         <v>54</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C160" s="14">
         <v>500</v>
@@ -4782,7 +4807,7 @@
         <v>55</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C161" s="14">
         <v>80</v>
@@ -4793,7 +4818,7 @@
         <v>36</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C162" s="14">
         <v>340</v>
@@ -4804,10 +4829,10 @@
         <v>57</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C163" s="14">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -4815,7 +4840,7 @@
         <v>58</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C164" s="14">
         <v>600</v>
@@ -4826,10 +4851,10 @@
         <v>38</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C165" s="14">
-        <v>170</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -4837,47 +4862,49 @@
         <v>36</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C166" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="C166" s="14">
+        <v>410</v>
+      </c>
     </row>
     <row r="167" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A167" s="24" t="s">
         <v>40</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C167" s="14">
-        <v>200</v>
+        <v>350</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A168" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C168" s="14"/>
     </row>
     <row r="169" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A169" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A170" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C170" s="14"/>
     </row>
@@ -4886,7 +4913,7 @@
         <v>41</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C171" s="14">
         <v>255</v>
@@ -4897,7 +4924,7 @@
         <v>43</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C172" s="14">
         <v>2382</v>
@@ -4908,7 +4935,7 @@
         <v>44</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C173" s="14">
         <v>800</v>
@@ -4916,37 +4943,37 @@
     </row>
     <row r="174" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A174" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C174" s="14"/>
     </row>
     <row r="175" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A175" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C175" s="14"/>
     </row>
     <row r="176" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A176" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C176" s="14"/>
     </row>
     <row r="177" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A177" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C177" s="14"/>
     </row>
@@ -4955,16 +4982,16 @@
         <v>8</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C178" s="6"/>
     </row>
     <row r="179" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A179" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C179" s="6"/>
     </row>
@@ -4973,10 +5000,10 @@
         <v>12</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -4984,7 +5011,7 @@
         <v>15</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C181" s="16" t="s">
         <v>10</v>
@@ -4992,10 +5019,10 @@
     </row>
     <row r="182" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A182" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C182" s="16" t="s">
         <v>17</v>
@@ -5003,13 +5030,13 @@
     </row>
     <row r="183" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A183" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -5017,7 +5044,7 @@
         <v>19</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C184" s="16" t="s">
         <v>18</v>
@@ -5025,64 +5052,64 @@
     </row>
     <row r="185" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A185" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A186" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A187" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C187" s="16"/>
     </row>
     <row r="188" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A188" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C188" s="16"/>
     </row>
     <row r="189" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A189" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A190" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -5090,25 +5117,25 @@
         <v>27</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C191" s="16"/>
     </row>
     <row r="192" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A192" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C192" s="16"/>
     </row>
     <row r="193" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A193" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C193" s="16"/>
     </row>
@@ -5117,7 +5144,7 @@
         <v>20</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C194" s="16" t="s">
         <v>14</v>
@@ -5128,10 +5155,10 @@
         <v>33</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -5139,7 +5166,7 @@
         <v>35</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C196" s="16"/>
     </row>
@@ -5148,7 +5175,7 @@
         <v>37</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C197" s="16" t="s">
         <v>9</v>
@@ -5159,7 +5186,7 @@
         <v>39</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C198" s="16"/>
     </row>
@@ -5168,7 +5195,7 @@
         <v>25</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C199" s="16"/>
     </row>
@@ -5177,7 +5204,7 @@
         <v>42</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C200" s="16" t="s">
         <v>9</v>
@@ -5188,18 +5215,18 @@
         <v>29</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A202" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C202" s="16" t="s">
         <v>9</v>
@@ -5210,27 +5237,27 @@
         <v>21</v>
       </c>
       <c r="B203" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C203" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="C203" s="16" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A204" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C204" s="16"/>
     </row>
     <row r="205" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A205" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C205" s="16"/>
     </row>
@@ -5239,7 +5266,7 @@
         <v>22</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C206" s="16" t="s">
         <v>45</v>
@@ -5247,48 +5274,48 @@
     </row>
     <row r="207" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A207" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A208" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C208" s="16"/>
     </row>
     <row r="209" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A209" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C209" s="16"/>
     </row>
     <row r="210" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A210" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C210" s="16"/>
     </row>
     <row r="211" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A211" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C211" s="16" t="s">
         <v>9</v>
@@ -5296,10 +5323,10 @@
     </row>
     <row r="212" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A212" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B212" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="C212" s="16"/>
     </row>
@@ -5308,7 +5335,7 @@
         <v>24</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C213" s="16"/>
     </row>
@@ -5317,19 +5344,19 @@
         <v>52</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C214" s="16"/>
     </row>
     <row r="215" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A215" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -5337,10 +5364,10 @@
         <v>26</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -5348,7 +5375,7 @@
         <v>28</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C217" s="16" t="s">
         <v>46</v>
@@ -5359,18 +5386,18 @@
         <v>59</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A219" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C219" s="16" t="s">
         <v>9</v>
@@ -5378,13 +5405,13 @@
     </row>
     <row r="220" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A220" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -5392,32 +5419,32 @@
         <v>33</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A222" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A223" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C223" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C223" s="16" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -5425,27 +5452,27 @@
         <v>23</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C224" s="16"/>
     </row>
     <row r="225" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A225" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A226" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C226" s="16" t="s">
         <v>9</v>
@@ -5453,33 +5480,33 @@
     </row>
     <row r="227" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A227" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A228" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C228" s="16"/>
     </row>
     <row r="229" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A229" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -5487,10 +5514,10 @@
         <v>28</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -5498,7 +5525,7 @@
         <v>30</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C231" s="16">
         <v>388</v>
@@ -5509,7 +5536,7 @@
         <v>31</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C232" s="16">
         <v>300</v>
@@ -5517,28 +5544,28 @@
     </row>
     <row r="233" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A233" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C233" s="16"/>
     </row>
     <row r="234" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A234" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C234" s="16"/>
     </row>
     <row r="235" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A235" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C235" s="16">
         <v>300</v>
@@ -5549,7 +5576,7 @@
         <v>48</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C236" s="16"/>
     </row>
@@ -5558,16 +5585,16 @@
         <v>32</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C237" s="16"/>
     </row>
     <row r="238" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A238" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C238" s="16">
         <v>110</v>
@@ -5578,18 +5605,18 @@
         <v>49</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A240" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C240" s="16">
         <v>300</v>
@@ -5597,10 +5624,10 @@
     </row>
     <row r="241" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A241" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C241" s="16"/>
     </row>
@@ -5609,7 +5636,7 @@
         <v>50</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C242" s="16">
         <v>220</v>
@@ -5617,13 +5644,13 @@
     </row>
     <row r="243" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A243" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -5631,16 +5658,16 @@
         <v>51</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C244" s="16"/>
     </row>
     <row r="245" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A245" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C245" s="16">
         <v>20</v>
@@ -5651,7 +5678,7 @@
         <v>34</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C246" s="16">
         <v>240</v>
@@ -5659,10 +5686,10 @@
     </row>
     <row r="247" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A247" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C247" s="16"/>
     </row>
@@ -5671,7 +5698,7 @@
         <v>54</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C248" s="16"/>
     </row>
@@ -5680,7 +5707,7 @@
         <v>55</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C249" s="16"/>
     </row>
@@ -5689,7 +5716,7 @@
         <v>36</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C250" s="16">
         <v>210</v>
@@ -5700,7 +5727,7 @@
         <v>57</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C251" s="16"/>
     </row>
@@ -5709,7 +5736,7 @@
         <v>58</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C252" s="16">
         <v>600</v>
@@ -5720,7 +5747,7 @@
         <v>38</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C253" s="16">
         <v>210</v>
@@ -5731,7 +5758,7 @@
         <v>36</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C254" s="16">
         <v>210</v>
@@ -5742,39 +5769,39 @@
         <v>40</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C255" s="16"/>
     </row>
     <row r="256" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A256" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C256" s="16"/>
     </row>
     <row r="257" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A257" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A258" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -5782,7 +5809,7 @@
         <v>41</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C259" s="16">
         <v>170</v>
@@ -5793,7 +5820,7 @@
         <v>43</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C260" s="16">
         <v>840</v>
@@ -5804,16 +5831,16 @@
         <v>44</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C261" s="16"/>
     </row>
     <row r="262" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A262" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C262" s="16">
         <v>130</v>
@@ -5821,10 +5848,10 @@
     </row>
     <row r="263" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A263" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C263" s="16">
         <v>400</v>
@@ -5832,10 +5859,10 @@
     </row>
     <row r="264" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A264" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C264" s="16">
         <v>550</v>
@@ -5843,10 +5870,10 @@
     </row>
     <row r="265" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A265" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C265" s="16">
         <v>140</v>
@@ -5860,12 +5887,12 @@
         <v>1</v>
       </c>
       <c r="C266" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A267" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B267" s="7" t="s">
         <v>1</v>
@@ -5892,7 +5919,7 @@
     </row>
     <row r="270" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A270" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B270" s="7" t="s">
         <v>1</v>
@@ -5903,7 +5930,7 @@
     </row>
     <row r="271" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A271" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B271" s="7" t="s">
         <v>1</v>
@@ -5923,18 +5950,18 @@
     </row>
     <row r="273" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A273" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B273" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C273" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A274" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B274" s="7" t="s">
         <v>1</v>
@@ -5943,7 +5970,7 @@
     </row>
     <row r="275" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A275" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B275" s="7" t="s">
         <v>1</v>
@@ -5954,7 +5981,7 @@
     </row>
     <row r="276" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A276" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B276" s="7" t="s">
         <v>1</v>
@@ -5963,18 +5990,18 @@
     </row>
     <row r="277" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A277" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B277" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A278" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B278" s="7" t="s">
         <v>1</v>
@@ -5994,7 +6021,7 @@
     </row>
     <row r="280" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A280" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B280" s="7" t="s">
         <v>1</v>
@@ -6003,7 +6030,7 @@
     </row>
     <row r="281" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A281" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B281" s="7" t="s">
         <v>1</v>
@@ -6088,7 +6115,7 @@
     </row>
     <row r="290" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A290" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B290" s="7" t="s">
         <v>1</v>
@@ -6108,7 +6135,7 @@
     </row>
     <row r="292" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A292" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B292" s="7" t="s">
         <v>1</v>
@@ -6117,7 +6144,7 @@
     </row>
     <row r="293" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A293" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B293" s="7" t="s">
         <v>1</v>
@@ -6135,18 +6162,18 @@
     </row>
     <row r="295" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A295" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B295" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A296" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B296" s="7" t="s">
         <v>1</v>
@@ -6155,7 +6182,7 @@
     </row>
     <row r="297" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A297" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B297" s="7" t="s">
         <v>1</v>
@@ -6166,7 +6193,7 @@
     </row>
     <row r="298" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A298" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B298" s="7" t="s">
         <v>1</v>
@@ -6175,7 +6202,7 @@
     </row>
     <row r="299" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A299" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B299" s="7" t="s">
         <v>1</v>
@@ -6184,7 +6211,7 @@
     </row>
     <row r="300" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A300" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B300" s="7" t="s">
         <v>1</v>
@@ -6213,7 +6240,7 @@
     </row>
     <row r="303" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A303" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B303" s="7" t="s">
         <v>1</v>
@@ -6251,7 +6278,7 @@
     </row>
     <row r="307" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A307" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B307" s="7" t="s">
         <v>1</v>
@@ -6260,7 +6287,7 @@
     </row>
     <row r="308" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A308" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B308" s="7" t="s">
         <v>1</v>
@@ -6278,7 +6305,7 @@
     </row>
     <row r="310" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A310" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B310" s="7" t="s">
         <v>1</v>
@@ -6287,7 +6314,7 @@
     </row>
     <row r="311" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A311" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B311" s="7" t="s">
         <v>1</v>
@@ -6305,7 +6332,7 @@
     </row>
     <row r="313" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A313" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B313" s="7" t="s">
         <v>1</v>
@@ -6314,7 +6341,7 @@
     </row>
     <row r="314" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A314" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B314" s="7" t="s">
         <v>1</v>
@@ -6323,7 +6350,7 @@
     </row>
     <row r="315" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A315" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B315" s="7" t="s">
         <v>1</v>
@@ -6332,7 +6359,7 @@
     </row>
     <row r="316" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A316" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B316" s="7" t="s">
         <v>1</v>
@@ -6341,7 +6368,7 @@
     </row>
     <row r="317" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A317" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B317" s="7" t="s">
         <v>1</v>
@@ -6377,7 +6404,7 @@
     </row>
     <row r="321" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A321" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B321" s="7" t="s">
         <v>1</v>
@@ -6386,7 +6413,7 @@
     </row>
     <row r="322" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A322" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B322" s="7" t="s">
         <v>1</v>
@@ -6395,7 +6422,7 @@
     </row>
     <row r="323" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A323" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B323" s="7" t="s">
         <v>1</v>
@@ -6424,7 +6451,7 @@
     </row>
     <row r="326" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A326" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B326" s="7" t="s">
         <v>1</v>
@@ -6442,7 +6469,7 @@
     </row>
     <row r="328" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A328" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B328" s="7" t="s">
         <v>1</v>
@@ -6451,7 +6478,7 @@
     </row>
     <row r="329" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A329" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B329" s="7" t="s">
         <v>1</v>
@@ -6469,7 +6496,7 @@
     </row>
     <row r="331" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A331" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B331" s="7" t="s">
         <v>1</v>
@@ -6487,7 +6514,7 @@
     </row>
     <row r="333" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A333" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B333" s="7" t="s">
         <v>1</v>
@@ -6507,7 +6534,7 @@
     </row>
     <row r="335" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A335" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B335" s="7" t="s">
         <v>1</v>
@@ -6600,7 +6627,7 @@
     </row>
     <row r="344" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A344" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B344" s="7" t="s">
         <v>1</v>
@@ -6609,7 +6636,7 @@
     </row>
     <row r="345" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A345" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B345" s="7" t="s">
         <v>1</v>
@@ -6618,7 +6645,7 @@
     </row>
     <row r="346" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A346" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B346" s="7" t="s">
         <v>1</v>
@@ -6660,7 +6687,7 @@
     </row>
     <row r="350" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A350" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B350" s="7" t="s">
         <v>1</v>
@@ -6669,7 +6696,7 @@
     </row>
     <row r="351" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A351" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B351" s="7" t="s">
         <v>1</v>
@@ -6678,7 +6705,7 @@
     </row>
     <row r="352" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A352" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B352" s="7" t="s">
         <v>1</v>
@@ -6687,7 +6714,7 @@
     </row>
     <row r="353" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A353" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B353" s="7" t="s">
         <v>1</v>
@@ -6705,7 +6732,7 @@
     </row>
     <row r="355" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A355" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B355" s="8" t="s">
         <v>2</v>
@@ -6734,7 +6761,7 @@
     </row>
     <row r="358" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A358" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B358" s="8" t="s">
         <v>2</v>
@@ -6743,7 +6770,7 @@
     </row>
     <row r="359" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A359" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B359" s="8" t="s">
         <v>2</v>
@@ -6763,7 +6790,7 @@
     </row>
     <row r="361" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A361" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B361" s="8" t="s">
         <v>2</v>
@@ -6774,7 +6801,7 @@
     </row>
     <row r="362" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A362" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B362" s="8" t="s">
         <v>2</v>
@@ -6783,18 +6810,18 @@
     </row>
     <row r="363" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A363" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B363" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C363" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A364" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B364" s="8" t="s">
         <v>2</v>
@@ -6805,7 +6832,7 @@
     </row>
     <row r="365" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A365" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B365" s="8" t="s">
         <v>2</v>
@@ -6814,7 +6841,7 @@
     </row>
     <row r="366" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A366" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B366" s="8" t="s">
         <v>2</v>
@@ -6834,7 +6861,7 @@
     </row>
     <row r="368" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A368" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B368" s="8" t="s">
         <v>2</v>
@@ -6845,7 +6872,7 @@
     </row>
     <row r="369" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A369" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B369" s="8" t="s">
         <v>2</v>
@@ -6860,7 +6887,7 @@
         <v>2</v>
       </c>
       <c r="C370" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -6916,7 +6943,7 @@
         <v>2</v>
       </c>
       <c r="C376" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -6930,7 +6957,7 @@
     </row>
     <row r="378" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A378" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>2</v>
@@ -6948,7 +6975,7 @@
     </row>
     <row r="380" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A380" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B380" s="8" t="s">
         <v>2</v>
@@ -6957,13 +6984,13 @@
     </row>
     <row r="381" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A381" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B381" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C381" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -6977,18 +7004,18 @@
     </row>
     <row r="383" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A383" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B383" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C383" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A384" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B384" s="8" t="s">
         <v>2</v>
@@ -6997,7 +7024,7 @@
     </row>
     <row r="385" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A385" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B385" s="8" t="s">
         <v>2</v>
@@ -7006,7 +7033,7 @@
     </row>
     <row r="386" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A386" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B386" s="8" t="s">
         <v>2</v>
@@ -7015,7 +7042,7 @@
     </row>
     <row r="387" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A387" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B387" s="8" t="s">
         <v>2</v>
@@ -7024,7 +7051,7 @@
     </row>
     <row r="388" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A388" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B388" s="8" t="s">
         <v>2</v>
@@ -7053,7 +7080,7 @@
     </row>
     <row r="391" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A391" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B391" s="8" t="s">
         <v>2</v>
@@ -7091,7 +7118,7 @@
     </row>
     <row r="395" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A395" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B395" s="8" t="s">
         <v>2</v>
@@ -7100,7 +7127,7 @@
     </row>
     <row r="396" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A396" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B396" s="8" t="s">
         <v>2</v>
@@ -7118,7 +7145,7 @@
     </row>
     <row r="398" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A398" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B398" s="8" t="s">
         <v>2</v>
@@ -7127,7 +7154,7 @@
     </row>
     <row r="399" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A399" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B399" s="8" t="s">
         <v>2</v>
@@ -7145,7 +7172,7 @@
     </row>
     <row r="401" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A401" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B401" s="8" t="s">
         <v>2</v>
@@ -7154,7 +7181,7 @@
     </row>
     <row r="402" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A402" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B402" s="8" t="s">
         <v>2</v>
@@ -7163,7 +7190,7 @@
     </row>
     <row r="403" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A403" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B403" s="8" t="s">
         <v>2</v>
@@ -7172,7 +7199,7 @@
     </row>
     <row r="404" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A404" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B404" s="8" t="s">
         <v>2</v>
@@ -7181,7 +7208,7 @@
     </row>
     <row r="405" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A405" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B405" s="8" t="s">
         <v>2</v>
@@ -7217,7 +7244,7 @@
     </row>
     <row r="409" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A409" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B409" s="8" t="s">
         <v>2</v>
@@ -7226,7 +7253,7 @@
     </row>
     <row r="410" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A410" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B410" s="8" t="s">
         <v>2</v>
@@ -7235,7 +7262,7 @@
     </row>
     <row r="411" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A411" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B411" s="8" t="s">
         <v>2</v>
@@ -7262,7 +7289,7 @@
     </row>
     <row r="414" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A414" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B414" s="8" t="s">
         <v>2</v>
@@ -7280,7 +7307,7 @@
     </row>
     <row r="416" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A416" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B416" s="8" t="s">
         <v>2</v>
@@ -7289,7 +7316,7 @@
     </row>
     <row r="417" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A417" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B417" s="8" t="s">
         <v>2</v>
@@ -7307,7 +7334,7 @@
     </row>
     <row r="419" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A419" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B419" s="8" t="s">
         <v>2</v>
@@ -7325,7 +7352,7 @@
     </row>
     <row r="421" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A421" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B421" s="8" t="s">
         <v>2</v>
@@ -7347,7 +7374,7 @@
     </row>
     <row r="423" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A423" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B423" s="8" t="s">
         <v>2</v>
@@ -7434,7 +7461,7 @@
     </row>
     <row r="432" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A432" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B432" s="8" t="s">
         <v>2</v>
@@ -7443,7 +7470,7 @@
     </row>
     <row r="433" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A433" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B433" s="8" t="s">
         <v>2</v>
@@ -7452,7 +7479,7 @@
     </row>
     <row r="434" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A434" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B434" s="8" t="s">
         <v>2</v>
@@ -7494,7 +7521,7 @@
     </row>
     <row r="438" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A438" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B438" s="8" t="s">
         <v>2</v>
@@ -7505,7 +7532,7 @@
     </row>
     <row r="439" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A439" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B439" s="8" t="s">
         <v>2</v>
@@ -7516,7 +7543,7 @@
     </row>
     <row r="440" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A440" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B440" s="8" t="s">
         <v>2</v>
@@ -7525,7 +7552,7 @@
     </row>
     <row r="441" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A441" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B441" s="8" t="s">
         <v>2</v>
@@ -7543,7 +7570,7 @@
     </row>
     <row r="443" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A443" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B443" s="9" t="s">
         <v>3</v>
@@ -7572,7 +7599,7 @@
     </row>
     <row r="446" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A446" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B446" s="9" t="s">
         <v>3</v>
@@ -7583,7 +7610,7 @@
     </row>
     <row r="447" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A447" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B447" s="9" t="s">
         <v>3</v>
@@ -7603,18 +7630,18 @@
     </row>
     <row r="449" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A449" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B449" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C449" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A450" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B450" s="9" t="s">
         <v>3</v>
@@ -7623,18 +7650,18 @@
     </row>
     <row r="451" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A451" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B451" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C451" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A452" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B452" s="9" t="s">
         <v>3</v>
@@ -7643,18 +7670,18 @@
     </row>
     <row r="453" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A453" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B453" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C453" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A454" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B454" s="9" t="s">
         <v>3</v>
@@ -7674,7 +7701,7 @@
     </row>
     <row r="456" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A456" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B456" s="9" t="s">
         <v>3</v>
@@ -7685,7 +7712,7 @@
     </row>
     <row r="457" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A457" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B457" s="9" t="s">
         <v>3</v>
@@ -7770,7 +7797,7 @@
     </row>
     <row r="466" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A466" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B466" s="9" t="s">
         <v>3</v>
@@ -7790,7 +7817,7 @@
     </row>
     <row r="468" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A468" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B468" s="9" t="s">
         <v>3</v>
@@ -7801,7 +7828,7 @@
     </row>
     <row r="469" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A469" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B469" s="9" t="s">
         <v>3</v>
@@ -7821,7 +7848,7 @@
     </row>
     <row r="471" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A471" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B471" s="9" t="s">
         <v>3</v>
@@ -7832,7 +7859,7 @@
     </row>
     <row r="472" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A472" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B472" s="9" t="s">
         <v>3</v>
@@ -7841,7 +7868,7 @@
     </row>
     <row r="473" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A473" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B473" s="9" t="s">
         <v>3</v>
@@ -7850,7 +7877,7 @@
     </row>
     <row r="474" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A474" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B474" s="9" t="s">
         <v>3</v>
@@ -7859,7 +7886,7 @@
     </row>
     <row r="475" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A475" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B475" s="9" t="s">
         <v>3</v>
@@ -7870,7 +7897,7 @@
     </row>
     <row r="476" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A476" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B476" s="9" t="s">
         <v>3</v>
@@ -7899,7 +7926,7 @@
     </row>
     <row r="479" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A479" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B479" s="9" t="s">
         <v>3</v>
@@ -7937,7 +7964,7 @@
     </row>
     <row r="483" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A483" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B483" s="9" t="s">
         <v>3</v>
@@ -7946,7 +7973,7 @@
     </row>
     <row r="484" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A484" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B484" s="9" t="s">
         <v>3</v>
@@ -7964,7 +7991,7 @@
     </row>
     <row r="486" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A486" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B486" s="9" t="s">
         <v>3</v>
@@ -7973,7 +8000,7 @@
     </row>
     <row r="487" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A487" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B487" s="9" t="s">
         <v>3</v>
@@ -7991,7 +8018,7 @@
     </row>
     <row r="489" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A489" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B489" s="9" t="s">
         <v>3</v>
@@ -8000,7 +8027,7 @@
     </row>
     <row r="490" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A490" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B490" s="9" t="s">
         <v>3</v>
@@ -8009,7 +8036,7 @@
     </row>
     <row r="491" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A491" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B491" s="9" t="s">
         <v>3</v>
@@ -8018,7 +8045,7 @@
     </row>
     <row r="492" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A492" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B492" s="9" t="s">
         <v>3</v>
@@ -8027,7 +8054,7 @@
     </row>
     <row r="493" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A493" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B493" s="9" t="s">
         <v>3</v>
@@ -8063,7 +8090,7 @@
     </row>
     <row r="497" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A497" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B497" s="9" t="s">
         <v>3</v>
@@ -8072,7 +8099,7 @@
     </row>
     <row r="498" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A498" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B498" s="9" t="s">
         <v>3</v>
@@ -8081,7 +8108,7 @@
     </row>
     <row r="499" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A499" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B499" s="9" t="s">
         <v>3</v>
@@ -8110,7 +8137,7 @@
     </row>
     <row r="502" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A502" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B502" s="9" t="s">
         <v>3</v>
@@ -8128,7 +8155,7 @@
     </row>
     <row r="504" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A504" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B504" s="9" t="s">
         <v>3</v>
@@ -8137,7 +8164,7 @@
     </row>
     <row r="505" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A505" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B505" s="9" t="s">
         <v>3</v>
@@ -8155,13 +8182,13 @@
     </row>
     <row r="507" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A507" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B507" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C507" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="508" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -8175,7 +8202,7 @@
     </row>
     <row r="509" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A509" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B509" s="9" t="s">
         <v>3</v>
@@ -8197,7 +8224,7 @@
     </row>
     <row r="511" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A511" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B511" s="9" t="s">
         <v>3</v>
@@ -8286,7 +8313,7 @@
     </row>
     <row r="520" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A520" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B520" s="9" t="s">
         <v>3</v>
@@ -8297,7 +8324,7 @@
     </row>
     <row r="521" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A521" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B521" s="9" t="s">
         <v>3</v>
@@ -8306,7 +8333,7 @@
     </row>
     <row r="522" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A522" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B522" s="9" t="s">
         <v>3</v>
@@ -8346,7 +8373,7 @@
     </row>
     <row r="526" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A526" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B526" s="9" t="s">
         <v>3</v>
@@ -8355,7 +8382,7 @@
     </row>
     <row r="527" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A527" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B527" s="9" t="s">
         <v>3</v>
@@ -8366,7 +8393,7 @@
     </row>
     <row r="528" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A528" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B528" s="9" t="s">
         <v>3</v>
@@ -8375,7 +8402,7 @@
     </row>
     <row r="529" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A529" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B529" s="9" t="s">
         <v>3</v>
@@ -8393,7 +8420,7 @@
     </row>
     <row r="531" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A531" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B531" s="10" t="s">
         <v>4</v>
@@ -8420,7 +8447,7 @@
     </row>
     <row r="534" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A534" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B534" s="10" t="s">
         <v>4</v>
@@ -8429,7 +8456,7 @@
     </row>
     <row r="535" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A535" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B535" s="10" t="s">
         <v>4</v>
@@ -8447,18 +8474,18 @@
     </row>
     <row r="537" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A537" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B537" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C537" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A538" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B538" s="10" t="s">
         <v>4</v>
@@ -8467,7 +8494,7 @@
     </row>
     <row r="539" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A539" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B539" s="10" t="s">
         <v>4</v>
@@ -8476,7 +8503,7 @@
     </row>
     <row r="540" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A540" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B540" s="10" t="s">
         <v>4</v>
@@ -8485,18 +8512,18 @@
     </row>
     <row r="541" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A541" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B541" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C541" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A542" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B542" s="10" t="s">
         <v>4</v>
@@ -8514,7 +8541,7 @@
     </row>
     <row r="544" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A544" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B544" s="10" t="s">
         <v>4</v>
@@ -8523,7 +8550,7 @@
     </row>
     <row r="545" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A545" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B545" s="10" t="s">
         <v>4</v>
@@ -8608,7 +8635,7 @@
     </row>
     <row r="554" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A554" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B554" s="10" t="s">
         <v>4</v>
@@ -8626,7 +8653,7 @@
     </row>
     <row r="556" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A556" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B556" s="10" t="s">
         <v>4</v>
@@ -8635,7 +8662,7 @@
     </row>
     <row r="557" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A557" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B557" s="10" t="s">
         <v>4</v>
@@ -8653,7 +8680,7 @@
     </row>
     <row r="559" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A559" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B559" s="10" t="s">
         <v>4</v>
@@ -8662,7 +8689,7 @@
     </row>
     <row r="560" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A560" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B560" s="10" t="s">
         <v>4</v>
@@ -8671,7 +8698,7 @@
     </row>
     <row r="561" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A561" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B561" s="10" t="s">
         <v>4</v>
@@ -8680,7 +8707,7 @@
     </row>
     <row r="562" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A562" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B562" s="10" t="s">
         <v>4</v>
@@ -8689,7 +8716,7 @@
     </row>
     <row r="563" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A563" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B563" s="10" t="s">
         <v>4</v>
@@ -8698,7 +8725,7 @@
     </row>
     <row r="564" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A564" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B564" s="10" t="s">
         <v>4</v>
@@ -8725,7 +8752,7 @@
     </row>
     <row r="567" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A567" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B567" s="10" t="s">
         <v>4</v>
@@ -8761,7 +8788,7 @@
     </row>
     <row r="571" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A571" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B571" s="10" t="s">
         <v>4</v>
@@ -8770,7 +8797,7 @@
     </row>
     <row r="572" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A572" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B572" s="10" t="s">
         <v>4</v>
@@ -8788,7 +8815,7 @@
     </row>
     <row r="574" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A574" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B574" s="10" t="s">
         <v>4</v>
@@ -8797,7 +8824,7 @@
     </row>
     <row r="575" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A575" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B575" s="10" t="s">
         <v>4</v>
@@ -8815,7 +8842,7 @@
     </row>
     <row r="577" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A577" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B577" s="10" t="s">
         <v>4</v>
@@ -8824,7 +8851,7 @@
     </row>
     <row r="578" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A578" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B578" s="10" t="s">
         <v>4</v>
@@ -8833,7 +8860,7 @@
     </row>
     <row r="579" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A579" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B579" s="10" t="s">
         <v>4</v>
@@ -8842,7 +8869,7 @@
     </row>
     <row r="580" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A580" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B580" s="10" t="s">
         <v>4</v>
@@ -8851,7 +8878,7 @@
     </row>
     <row r="581" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A581" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B581" s="10" t="s">
         <v>4</v>
@@ -8887,7 +8914,7 @@
     </row>
     <row r="585" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A585" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B585" s="10" t="s">
         <v>4</v>
@@ -8896,7 +8923,7 @@
     </row>
     <row r="586" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A586" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B586" s="10" t="s">
         <v>4</v>
@@ -8905,7 +8932,7 @@
     </row>
     <row r="587" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A587" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B587" s="10" t="s">
         <v>4</v>
@@ -8932,7 +8959,7 @@
     </row>
     <row r="590" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A590" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B590" s="10" t="s">
         <v>4</v>
@@ -8950,7 +8977,7 @@
     </row>
     <row r="592" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A592" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B592" s="10" t="s">
         <v>4</v>
@@ -8959,7 +8986,7 @@
     </row>
     <row r="593" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A593" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B593" s="10" t="s">
         <v>4</v>
@@ -8977,7 +9004,7 @@
     </row>
     <row r="595" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A595" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B595" s="10" t="s">
         <v>4</v>
@@ -8995,7 +9022,7 @@
     </row>
     <row r="597" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A597" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B597" s="10" t="s">
         <v>4</v>
@@ -9013,7 +9040,7 @@
     </row>
     <row r="599" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A599" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B599" s="10" t="s">
         <v>4</v>
@@ -9094,7 +9121,7 @@
     </row>
     <row r="608" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A608" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B608" s="10" t="s">
         <v>4</v>
@@ -9103,7 +9130,7 @@
     </row>
     <row r="609" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A609" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B609" s="10" t="s">
         <v>4</v>
@@ -9112,7 +9139,7 @@
     </row>
     <row r="610" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A610" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B610" s="10" t="s">
         <v>4</v>
@@ -9150,7 +9177,7 @@
     </row>
     <row r="614" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A614" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B614" s="10" t="s">
         <v>4</v>
@@ -9159,7 +9186,7 @@
     </row>
     <row r="615" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A615" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B615" s="10" t="s">
         <v>4</v>
@@ -9168,7 +9195,7 @@
     </row>
     <row r="616" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A616" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B616" s="10" t="s">
         <v>4</v>
@@ -9177,7 +9204,7 @@
     </row>
     <row r="617" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A617" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B617" s="10" t="s">
         <v>4</v>
@@ -9195,13 +9222,13 @@
     </row>
     <row r="619" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A619" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B619" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C619" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="620" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -9226,7 +9253,7 @@
     </row>
     <row r="622" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A622" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B622" s="11" t="s">
         <v>5</v>
@@ -9237,7 +9264,7 @@
     </row>
     <row r="623" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A623" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B623" s="11" t="s">
         <v>5</v>
@@ -9257,7 +9284,7 @@
     </row>
     <row r="625" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A625" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B625" s="11" t="s">
         <v>5</v>
@@ -9266,7 +9293,7 @@
     </row>
     <row r="626" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A626" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B626" s="11" t="s">
         <v>5</v>
@@ -9275,7 +9302,7 @@
     </row>
     <row r="627" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A627" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B627" s="11" t="s">
         <v>5</v>
@@ -9284,7 +9311,7 @@
     </row>
     <row r="628" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A628" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B628" s="11" t="s">
         <v>5</v>
@@ -9293,7 +9320,7 @@
     </row>
     <row r="629" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A629" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B629" s="11" t="s">
         <v>5</v>
@@ -9302,7 +9329,7 @@
     </row>
     <row r="630" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A630" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B630" s="11" t="s">
         <v>5</v>
@@ -9322,7 +9349,7 @@
     </row>
     <row r="632" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A632" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B632" s="11" t="s">
         <v>5</v>
@@ -9331,7 +9358,7 @@
     </row>
     <row r="633" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A633" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B633" s="11" t="s">
         <v>5</v>
@@ -9412,7 +9439,7 @@
     </row>
     <row r="642" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A642" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B642" s="11" t="s">
         <v>5</v>
@@ -9430,7 +9457,7 @@
     </row>
     <row r="644" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A644" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B644" s="11" t="s">
         <v>5</v>
@@ -9439,7 +9466,7 @@
     </row>
     <row r="645" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A645" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B645" s="11" t="s">
         <v>5</v>
@@ -9454,12 +9481,12 @@
         <v>5</v>
       </c>
       <c r="C646" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="647" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A647" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B647" s="11" t="s">
         <v>5</v>
@@ -9468,7 +9495,7 @@
     </row>
     <row r="648" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A648" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B648" s="11" t="s">
         <v>5</v>
@@ -9477,7 +9504,7 @@
     </row>
     <row r="649" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A649" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B649" s="11" t="s">
         <v>5</v>
@@ -9486,7 +9513,7 @@
     </row>
     <row r="650" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A650" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B650" s="11" t="s">
         <v>5</v>
@@ -9497,7 +9524,7 @@
     </row>
     <row r="651" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A651" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B651" s="11" t="s">
         <v>5</v>
@@ -9506,7 +9533,7 @@
     </row>
     <row r="652" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A652" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B652" s="11" t="s">
         <v>5</v>
@@ -9533,7 +9560,7 @@
     </row>
     <row r="655" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A655" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B655" s="11" t="s">
         <v>5</v>
@@ -9569,7 +9596,7 @@
     </row>
     <row r="659" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A659" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B659" s="11" t="s">
         <v>5</v>
@@ -9578,7 +9605,7 @@
     </row>
     <row r="660" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A660" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B660" s="11" t="s">
         <v>5</v>
@@ -9596,7 +9623,7 @@
     </row>
     <row r="662" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A662" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B662" s="11" t="s">
         <v>5</v>
@@ -9605,7 +9632,7 @@
     </row>
     <row r="663" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A663" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B663" s="11" t="s">
         <v>5</v>
@@ -9623,7 +9650,7 @@
     </row>
     <row r="665" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A665" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B665" s="11" t="s">
         <v>5</v>
@@ -9632,7 +9659,7 @@
     </row>
     <row r="666" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A666" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B666" s="11" t="s">
         <v>5</v>
@@ -9641,7 +9668,7 @@
     </row>
     <row r="667" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A667" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B667" s="11" t="s">
         <v>5</v>
@@ -9650,7 +9677,7 @@
     </row>
     <row r="668" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A668" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B668" s="11" t="s">
         <v>5</v>
@@ -9659,7 +9686,7 @@
     </row>
     <row r="669" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A669" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B669" s="11" t="s">
         <v>5</v>
@@ -9695,7 +9722,7 @@
     </row>
     <row r="673" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A673" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B673" s="11" t="s">
         <v>5</v>
@@ -9704,7 +9731,7 @@
     </row>
     <row r="674" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A674" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B674" s="11" t="s">
         <v>5</v>
@@ -9713,7 +9740,7 @@
     </row>
     <row r="675" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A675" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B675" s="11" t="s">
         <v>5</v>
@@ -9740,7 +9767,7 @@
     </row>
     <row r="678" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A678" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B678" s="11" t="s">
         <v>5</v>
@@ -9758,7 +9785,7 @@
     </row>
     <row r="680" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A680" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B680" s="11" t="s">
         <v>5</v>
@@ -9767,7 +9794,7 @@
     </row>
     <row r="681" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A681" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B681" s="11" t="s">
         <v>5</v>
@@ -9785,7 +9812,7 @@
     </row>
     <row r="683" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A683" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B683" s="11" t="s">
         <v>5</v>
@@ -9803,7 +9830,7 @@
     </row>
     <row r="685" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A685" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B685" s="11" t="s">
         <v>5</v>
@@ -9821,7 +9848,7 @@
     </row>
     <row r="687" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A687" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B687" s="11" t="s">
         <v>5</v>
@@ -9902,7 +9929,7 @@
     </row>
     <row r="696" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A696" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B696" s="11" t="s">
         <v>5</v>
@@ -9911,7 +9938,7 @@
     </row>
     <row r="697" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A697" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B697" s="11" t="s">
         <v>5</v>
@@ -9920,7 +9947,7 @@
     </row>
     <row r="698" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A698" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B698" s="11" t="s">
         <v>5</v>
@@ -9960,7 +9987,7 @@
     </row>
     <row r="702" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A702" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B702" s="11" t="s">
         <v>5</v>
@@ -9969,7 +9996,7 @@
     </row>
     <row r="703" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A703" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B703" s="11" t="s">
         <v>5</v>
@@ -9978,7 +10005,7 @@
     </row>
     <row r="704" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A704" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B704" s="11" t="s">
         <v>5</v>
@@ -9987,7 +10014,7 @@
     </row>
     <row r="705" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A705" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B705" s="11" t="s">
         <v>5</v>
@@ -10005,7 +10032,7 @@
     </row>
     <row r="707" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A707" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B707" s="12" t="s">
         <v>6</v>
@@ -10032,7 +10059,7 @@
     </row>
     <row r="710" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A710" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B710" s="12" t="s">
         <v>6</v>
@@ -10041,7 +10068,7 @@
     </row>
     <row r="711" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A711" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B711" s="12" t="s">
         <v>6</v>
@@ -10059,7 +10086,7 @@
     </row>
     <row r="713" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A713" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B713" s="12" t="s">
         <v>6</v>
@@ -10068,7 +10095,7 @@
     </row>
     <row r="714" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A714" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B714" s="12" t="s">
         <v>6</v>
@@ -10077,7 +10104,7 @@
     </row>
     <row r="715" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A715" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B715" s="12" t="s">
         <v>6</v>
@@ -10086,7 +10113,7 @@
     </row>
     <row r="716" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A716" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B716" s="12" t="s">
         <v>6</v>
@@ -10095,7 +10122,7 @@
     </row>
     <row r="717" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A717" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B717" s="12" t="s">
         <v>6</v>
@@ -10104,7 +10131,7 @@
     </row>
     <row r="718" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A718" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B718" s="12" t="s">
         <v>6</v>
@@ -10122,7 +10149,7 @@
     </row>
     <row r="720" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A720" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B720" s="12" t="s">
         <v>6</v>
@@ -10131,7 +10158,7 @@
     </row>
     <row r="721" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A721" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B721" s="12" t="s">
         <v>6</v>
@@ -10214,7 +10241,7 @@
     </row>
     <row r="730" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A730" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B730" s="12" t="s">
         <v>6</v>
@@ -10232,7 +10259,7 @@
     </row>
     <row r="732" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A732" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B732" s="12" t="s">
         <v>6</v>
@@ -10241,7 +10268,7 @@
     </row>
     <row r="733" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A733" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B733" s="12" t="s">
         <v>6</v>
@@ -10259,7 +10286,7 @@
     </row>
     <row r="735" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A735" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B735" s="12" t="s">
         <v>6</v>
@@ -10268,7 +10295,7 @@
     </row>
     <row r="736" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A736" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B736" s="12" t="s">
         <v>6</v>
@@ -10277,7 +10304,7 @@
     </row>
     <row r="737" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A737" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B737" s="12" t="s">
         <v>6</v>
@@ -10286,7 +10313,7 @@
     </row>
     <row r="738" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A738" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B738" s="12" t="s">
         <v>6</v>
@@ -10295,7 +10322,7 @@
     </row>
     <row r="739" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A739" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B739" s="12" t="s">
         <v>6</v>
@@ -10304,7 +10331,7 @@
     </row>
     <row r="740" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A740" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B740" s="12" t="s">
         <v>6</v>
@@ -10331,7 +10358,7 @@
     </row>
     <row r="743" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A743" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B743" s="12" t="s">
         <v>6</v>
@@ -10367,7 +10394,7 @@
     </row>
     <row r="747" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A747" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B747" s="12" t="s">
         <v>6</v>
@@ -10376,7 +10403,7 @@
     </row>
     <row r="748" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A748" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B748" s="12" t="s">
         <v>6</v>
@@ -10394,7 +10421,7 @@
     </row>
     <row r="750" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A750" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B750" s="12" t="s">
         <v>6</v>
@@ -10403,7 +10430,7 @@
     </row>
     <row r="751" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A751" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B751" s="12" t="s">
         <v>6</v>
@@ -10421,7 +10448,7 @@
     </row>
     <row r="753" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A753" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B753" s="12" t="s">
         <v>6</v>
@@ -10430,7 +10457,7 @@
     </row>
     <row r="754" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A754" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B754" s="12" t="s">
         <v>6</v>
@@ -10439,7 +10466,7 @@
     </row>
     <row r="755" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A755" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B755" s="12" t="s">
         <v>6</v>
@@ -10448,7 +10475,7 @@
     </row>
     <row r="756" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A756" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B756" s="12" t="s">
         <v>6</v>
@@ -10457,7 +10484,7 @@
     </row>
     <row r="757" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A757" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B757" s="12" t="s">
         <v>6</v>
@@ -10493,7 +10520,7 @@
     </row>
     <row r="761" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A761" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B761" s="12" t="s">
         <v>6</v>
@@ -10502,7 +10529,7 @@
     </row>
     <row r="762" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A762" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B762" s="12" t="s">
         <v>6</v>
@@ -10511,7 +10538,7 @@
     </row>
     <row r="763" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A763" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B763" s="12" t="s">
         <v>6</v>
@@ -10535,12 +10562,12 @@
         <v>6</v>
       </c>
       <c r="C765" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="766" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A766" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B766" s="12" t="s">
         <v>6</v>
@@ -10560,7 +10587,7 @@
     </row>
     <row r="768" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A768" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B768" s="12" t="s">
         <v>6</v>
@@ -10571,7 +10598,7 @@
     </row>
     <row r="769" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A769" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B769" s="12" t="s">
         <v>6</v>
@@ -10589,7 +10616,7 @@
     </row>
     <row r="771" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A771" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B771" s="12" t="s">
         <v>6</v>
@@ -10607,7 +10634,7 @@
     </row>
     <row r="773" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A773" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B773" s="12" t="s">
         <v>6</v>
@@ -10625,7 +10652,7 @@
     </row>
     <row r="775" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A775" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B775" s="12" t="s">
         <v>6</v>
@@ -10712,7 +10739,7 @@
     </row>
     <row r="784" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A784" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B784" s="12" t="s">
         <v>6</v>
@@ -10721,7 +10748,7 @@
     </row>
     <row r="785" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A785" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B785" s="12" t="s">
         <v>6</v>
@@ -10730,7 +10757,7 @@
     </row>
     <row r="786" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A786" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B786" s="12" t="s">
         <v>6</v>
@@ -10770,7 +10797,7 @@
     </row>
     <row r="790" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A790" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B790" s="12" t="s">
         <v>6</v>
@@ -10779,7 +10806,7 @@
     </row>
     <row r="791" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A791" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B791" s="12" t="s">
         <v>6</v>
@@ -10788,7 +10815,7 @@
     </row>
     <row r="792" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A792" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B792" s="12" t="s">
         <v>6</v>
@@ -10797,7 +10824,7 @@
     </row>
     <row r="793" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A793" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B793" s="12" t="s">
         <v>6</v>
@@ -10817,7 +10844,7 @@
     </row>
     <row r="795" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A795" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B795" s="13" t="s">
         <v>7</v>
@@ -10848,7 +10875,7 @@
     </row>
     <row r="798" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A798" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B798" s="13" t="s">
         <v>7</v>
@@ -10859,7 +10886,7 @@
     </row>
     <row r="799" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A799" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B799" s="13" t="s">
         <v>7</v>
@@ -10877,7 +10904,7 @@
     </row>
     <row r="801" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A801" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B801" s="13" t="s">
         <v>7</v>
@@ -10886,7 +10913,7 @@
     </row>
     <row r="802" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A802" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B802" s="13" t="s">
         <v>7</v>
@@ -10897,7 +10924,7 @@
     </row>
     <row r="803" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A803" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B803" s="13" t="s">
         <v>7</v>
@@ -10906,7 +10933,7 @@
     </row>
     <row r="804" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A804" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B804" s="13" t="s">
         <v>7</v>
@@ -10915,7 +10942,7 @@
     </row>
     <row r="805" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A805" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B805" s="13" t="s">
         <v>7</v>
@@ -10924,7 +10951,7 @@
     </row>
     <row r="806" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A806" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B806" s="13" t="s">
         <v>7</v>
@@ -10942,7 +10969,7 @@
     </row>
     <row r="808" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A808" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B808" s="13" t="s">
         <v>7</v>
@@ -10951,7 +10978,7 @@
     </row>
     <row r="809" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A809" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B809" s="13" t="s">
         <v>7</v>
@@ -11036,7 +11063,7 @@
     </row>
     <row r="818" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A818" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B818" s="13" t="s">
         <v>7</v>
@@ -11054,7 +11081,7 @@
     </row>
     <row r="820" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A820" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B820" s="13" t="s">
         <v>7</v>
@@ -11063,7 +11090,7 @@
     </row>
     <row r="821" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A821" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B821" s="13" t="s">
         <v>7</v>
@@ -11083,7 +11110,7 @@
     </row>
     <row r="823" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A823" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B823" s="13" t="s">
         <v>7</v>
@@ -11094,7 +11121,7 @@
     </row>
     <row r="824" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A824" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B824" s="13" t="s">
         <v>7</v>
@@ -11103,7 +11130,7 @@
     </row>
     <row r="825" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A825" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B825" s="13" t="s">
         <v>7</v>
@@ -11112,7 +11139,7 @@
     </row>
     <row r="826" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A826" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B826" s="13" t="s">
         <v>7</v>
@@ -11121,7 +11148,7 @@
     </row>
     <row r="827" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A827" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B827" s="13" t="s">
         <v>7</v>
@@ -11130,7 +11157,7 @@
     </row>
     <row r="828" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A828" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B828" s="13" t="s">
         <v>7</v>
@@ -11157,7 +11184,7 @@
     </row>
     <row r="831" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A831" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B831" s="13" t="s">
         <v>7</v>
@@ -11195,7 +11222,7 @@
     </row>
     <row r="835" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A835" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B835" s="13" t="s">
         <v>7</v>
@@ -11204,7 +11231,7 @@
     </row>
     <row r="836" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A836" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B836" s="13" t="s">
         <v>7</v>
@@ -11222,7 +11249,7 @@
     </row>
     <row r="838" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A838" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B838" s="13" t="s">
         <v>7</v>
@@ -11231,7 +11258,7 @@
     </row>
     <row r="839" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A839" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B839" s="13" t="s">
         <v>7</v>
@@ -11249,7 +11276,7 @@
     </row>
     <row r="841" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A841" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B841" s="13" t="s">
         <v>7</v>
@@ -11258,7 +11285,7 @@
     </row>
     <row r="842" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A842" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B842" s="13" t="s">
         <v>7</v>
@@ -11269,7 +11296,7 @@
     </row>
     <row r="843" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A843" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B843" s="13" t="s">
         <v>7</v>
@@ -11278,7 +11305,7 @@
     </row>
     <row r="844" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A844" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B844" s="13" t="s">
         <v>7</v>
@@ -11287,7 +11314,7 @@
     </row>
     <row r="845" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A845" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B845" s="13" t="s">
         <v>7</v>
@@ -11325,7 +11352,7 @@
     </row>
     <row r="849" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A849" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B849" s="13" t="s">
         <v>7</v>
@@ -11334,7 +11361,7 @@
     </row>
     <row r="850" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A850" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B850" s="13" t="s">
         <v>7</v>
@@ -11343,7 +11370,7 @@
     </row>
     <row r="851" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A851" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B851" s="13" t="s">
         <v>7</v>
@@ -11370,7 +11397,7 @@
     </row>
     <row r="854" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A854" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B854" s="13" t="s">
         <v>7</v>
@@ -11388,7 +11415,7 @@
     </row>
     <row r="856" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A856" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B856" s="13" t="s">
         <v>7</v>
@@ -11397,7 +11424,7 @@
     </row>
     <row r="857" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A857" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B857" s="13" t="s">
         <v>7</v>
@@ -11415,7 +11442,7 @@
     </row>
     <row r="859" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A859" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B859" s="13" t="s">
         <v>7</v>
@@ -11433,7 +11460,7 @@
     </row>
     <row r="861" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A861" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B861" s="13" t="s">
         <v>7</v>
@@ -11451,7 +11478,7 @@
     </row>
     <row r="863" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A863" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B863" s="13" t="s">
         <v>7</v>
@@ -11532,7 +11559,7 @@
     </row>
     <row r="872" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A872" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B872" s="13" t="s">
         <v>7</v>
@@ -11541,7 +11568,7 @@
     </row>
     <row r="873" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A873" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B873" s="13" t="s">
         <v>7</v>
@@ -11550,7 +11577,7 @@
     </row>
     <row r="874" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A874" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B874" s="13" t="s">
         <v>7</v>
@@ -11590,7 +11617,7 @@
     </row>
     <row r="878" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A878" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B878" s="13" t="s">
         <v>7</v>
@@ -11599,7 +11626,7 @@
     </row>
     <row r="879" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A879" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B879" s="13" t="s">
         <v>7</v>
@@ -11610,7 +11637,7 @@
     </row>
     <row r="880" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A880" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B880" s="13" t="s">
         <v>7</v>
@@ -11619,7 +11646,7 @@
     </row>
     <row r="881" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A881" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B881" s="13" t="s">
         <v>7</v>
